--- a/0000/AriadneData/売上/UR20060005/請求書.xlsx
+++ b/0000/AriadneData/売上/UR20060005/請求書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5195F3B8-36B5-4F87-9108-D3406D7DB89E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F6CACB-6384-46AE-89A2-4C0145ADF374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,15 +318,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2020年06月22日</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〒 739-0004</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広島県東広島市西条末広町</t>
+    <t>2020年06月30日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〒 734-0012</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広島県広島市南区元宇品町</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -349,7 +349,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2020年07月09日</t>
+    <t>2020年07月30日</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -397,7 +397,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1234TEST担当者</t>
+    <t>橋本和樹</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2035,7 +2035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD0F420-B52D-4A22-AE9F-239985A9A4B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED8AF10-E359-4BB6-87DE-DFC0F0D1706C}">
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
@@ -2774,7 +2774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB9C7F9-3E09-477C-9C2E-7D39F420D8C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6913D5F-64E6-4734-8CCA-64F9A15B0F9C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="D4" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3432,7 +3432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F71153-CE79-4E51-89F0-C320BFFB4EB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2CC28F-90E1-4F6E-BACF-76F5745E2331}">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4678,7 +4678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3E5743-75D5-4401-B8E8-403236638740}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3159117-2B5B-42D3-B462-1D9CB15F656E}">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
